--- a/predict.xlsx
+++ b/predict.xlsx
@@ -28,271 +28,271 @@
     <t>Kết quả</t>
   </si>
   <si>
-    <t>tp hcm giảm dần khai_thác nước_ngầm hoàng_anh lượng nước_ngầm khai_thác thành_phố liên_tục giảm gần đây tiến tới mục_tiêu chỉ còn 100 000 m3 mỗi ngày 2025 theo cơ_quan_chức_năng</t>
-  </si>
-  <si>
-    <t>henry cavill trở_lại đóng superman  tài_tử henry cavill xác_nhận tiếp_tục đóng superman vũ_trụ điện_ảnh dc</t>
-  </si>
-  <si>
-    <t>brad pitt gặp chủ đội đua xe f1 thanh_giang tài_tử brad pitt trò_chuyện giám_đốc điều_hành f1 một_số chủ đội thảo_luận dự_án phim mới</t>
-  </si>
-  <si>
-    <t>nguyễn văn_thể làm bí_thư đảng_ủy khối cơ_quan trung_ương viết_tuân nguyễn văn_thể bộ chính_trị chỉ_định làm bí_thư đảng_ủy khối cơ_quan trung_ương thay huỳnh_tấn việt thôi chức ủy_viên trung_ương</t>
-  </si>
-  <si>
-    <t>chiến_dịch chống tham_nhũng việt nam phủ bóng đen lên nền kinh_tế hãng tin nikkei vụ bắt_giữ lãnh_đạo doanh_nghiệp nổi_tiếng tạo làn_sóng rút_tiền ồ_ạt ngân_hàng tmcp sài_gòn bắt_giữ một_số lãnh_đạo doanh_nghiệp nổi_tiếng nhất cuộc thanh_trừng chống tham_nhũng kéo_dài tháng gây hoang_mang giữa ngành_nghề đe_dọa nền kinh_tế đang phát_triển nhanh nhất đông_nam_á vụ bắt_giữ mới nhất làm dấy lên cuộc tháo_chạy đối_với cổ_phần tư_nhân sài_gòn ngân_hàng thương_mại scb ngày 8 tháng 10 khách_hàng tràn_ngập chi_nhánh scb đòi rút_tiền tiết_kiệm tin_đồn lan_truyền trên phương_tiện truyền_thông xã_hội rằng ngân_hàng có_thể đang gặp khó_khăn ngày trước đó chính_quyền bắt_giữ bà trương mỹ_lan sáng_lập chủ_tịch công_ty phát_triển bất_động_sản vạn_thịnh_phát group_holdings vtp cùng cùng ba giám_đốc điều_hành khác vtp quan_hệ sâu_sắc scb nhóm sở_hữu tài_sản bị_cáo_buộc phát_hành bất_hợp_pháp trái_phiếu công_ty trị_giá 25 nghìn tỷ đồng 02 tỷ usd giữa 2018 2019 theo truyền_thông địa_phương đưa tin doanh_nhân gốc hoa lan bà chủ gia_đình giàu_có nhất bà lan mối liên_hệ chặt_chẽ quan_chức địa_phương tp hcm sở_hữu vô_số bất_động_sản sang_trọng ngay trung_tâm thành_phố tuy_vậy ít biết vtp vốn thuộc sở_hữu tư_nhân ít thông_tin tiết_lộ công_ty bí_ẩn ngành tài_chính nhận_định scb phải chật_vật cố xóa_tan lo_ngại mối quan_hệ vtp hôm thứ_sáu vừa_qua ngân_hàng trung_ương thực_hiện bước bất_thường đặt scb diện giám_sát đặc_biệt chỉ_thị bốn tập_đoàn ngân_hàng thuộc sở_hữu nhà_nước cử giám_đốc scb đang nguy_khốn nhà_nước hạn_chế việc phương_tiện truyền_thông địa_phương loan tin vấn_đề chính_quyền bắt_giữ một_số lãnh_đạo doanh_nghiệp nổi_tiếng nay bao_gồm cả tập_đoàn flc tập_đoàn tân_hoàng_minh tội gian_lận cáo_buộc khác thủ_tướng phạm_minh chính mới tuyên_bố sẽ dung_thứ mọi sai_trái làm mất sự tin_tưởng dân báo_hiệu đợt đàn_áp sắp tới nhưng điều gì coi gian_lận hoặc tham_nhũng phần_lớn phụ_thuộc sự quyết_định cơ_quan_chức_năng vụ kiện chống nhân_vật kinh_doanh chủ_chốt liên_quan cuộc tranh_giành quyền_lực chính_trị đảng cộng_sản đang kiểm_soát nguồn tin ngành bất_động_sản nhận_định người_ta ngại rằng tay_chơi lớn sẽ trì_hoãn việc huy_động số tiền lớn thời_gian trước mặt tránh trở_thành mục_tiêu tấn_công cơ_quan chính_phủ đang trì_hoãn quyết_định liên_quan khoản đầu_tư mới như một_cách giảm_thiểu tác_động chiến_dịch chống tham_nhũng đầu_tư công_ty nước_ngoài chiếm khoảng 70 xuất_khẩu sụt_giảm nếu việc đàn_áp tiếp_tục xảy thì có_thể ảnh_hưởng nặng_nề lên toàn_bộ nền kinh_tế</t>
-  </si>
-  <si>
-    <t>mối quan_hệ giữa kanye_west adidas rạn_nứt phương_mai quan_hệ hợp_tác giữa kanye_west adidas rạn_nứt rapper hành_động khó hiểu gây tranh_cãi</t>
-  </si>
-  <si>
-    <t>tác_giả vua trò_chơi chết cố cứu đuối nước phương_mai họa_sĩ truyện_tranh nhật_bản kazuki takahashi xác_nhận thiệt_mạng cố_gắng cứu khỏi chết_đuối</t>
+    <t>tp hcm tạm ngưng cấp_nước hai quận trung_tâm hoàng_anh công_ty cấp_nước bến_thành sẽ tạm ngưng cấp_nước 22h ngày 17 9 6h ngày 18 9 trạm phân_phối nước số 2a điện_biên_phủ phường đa_kao quận</t>
+  </si>
+  <si>
+    <t>đại_biểu quốc_hội bộ ngành điều_hành xăng dầu vẫn lúng_túng anh_minh đại_biểu quốc_hội rằng thị_trường xăng dầu vẫn đứt_gãy chuỗi cung_ứng nhất tỉnh thành phía nam thấy điều_hành bộ ngành liên_quan còn lúng_túng</t>
+  </si>
+  <si>
+    <t>xuất_hiện bằng_chứng mới sự sống trên mặt_trăng báo lao_động đất mặt_trăng hoàn_toàn có_thể nuôi_dưỡng sự sống chỉ vi_sinh_vật sơ_khai mà còn cái cây hẳn_hoi phát_triển vô_cùng mạnh_mẽ</t>
+  </si>
+  <si>
+    <t>đề_xuất quy_định bảng lương riêng cán_bộ y_tế viết_tuân đại_biểu quốc_hội đề_xuất quy_định bảng lương theo bậc ngạch riêng nhân_viên y_tế vì họ phải đào_tạo thời_gian dài tiêu_chuẩn cao</t>
+  </si>
+  <si>
+    <t>ám_ảnh ngày halloween theanh28 thông_tin cập_nhật chức_trách hàn_quốc sáng 30 10 biết ít_nhất 149 thiệt_mạng 76 khác bị_thương vụ gi ẫm đ ạp quận itaewon thủ_đô seoul_tối 29 10 hàng chục nghìn chen_chúc trên con phố chật_hẹp tham_gia lễ_hội halloween khu_vực</t>
+  </si>
+  <si>
+    <t>nữ_công_nhân lên làm sếp lê_tuyết bắt_đầu vị_trí công_nhân trực_tiếp sản_xuất nhờ nỗ_lực học_hỏi ngại khó lên sếp quản_lý cả nghìn lao_động</t>
+  </si>
+  <si>
+    <t>tháp cắt áp gần 60 tuổi trung_tâm sài_gòn đình_văn tháp_bêtông cao gần 50 m hình_dáng như tên_lửa giúp giảm áp_lực ống nước đảm_bảo dòng_chảy 70 khoảng 7 triệu dân thành_phố</t>
+  </si>
+  <si>
+    <t>đám cỗ chồng giò thịt bay vèo_vèo qua tường hàng_xóm  bên vườn chồng em vật_thể lạ cứ bay vèo_vèo sang bên chú em dụi mắt đeo kính nhìn thì phát_hiện vật_thể lạ đó giò thịt</t>
+  </si>
+  <si>
+    <t>lương_thùy_linh sinh_viên tồ chân dài đắt show tân_cao quang_khang mẹ_lương_thùy_linh tức_giận đổi phong_cách giản_dị sang mặc váy trễ vai khoét ngực đăng_quang hoa_hậu</t>
+  </si>
+  <si>
+    <t>nàng kiếm 40 tỷ nhờ học_lỏm nuôi nấm quý liều cạn tiền cắm xe_máy đẻ th khắp nơi tìm_kiếm bí_quyết nhưng vô_ích cùng lần thất_bại nợ_nần chồng_chất đến_nỗi hàng tháng liền phải trốn phòng thí_nghiệm thì chị thɑ ̉ o tìm bí_quyết nuôi_trồng đông trùng hạ thɑ ̉ o thu lợi_nhuận cao chẳng đâu xa bí_quyết ấy nằm nǥay hàng_xóm làm nông cạnh đây có_lẽ lời tóm_tắt ngắn_gọn mà đầy_đủ nhất ʋề quá_trình thu ʋề 40 tỷ mỗi nhờ lòng quyết ƭâm từ_bỏ chị nguyễn_thị_hồng phụ_nữ công nuôi_trồng thành_công đông trùng hạ thɑ ̉ o đầu_tiên</t>
+  </si>
+  <si>
+    <t>cứ liên_quan đất_đai anh_em mất đoàn_kết theanh28 vụ_việc xảy xã trung_hoà huyện yên_mỹ tỉnh hưng_yên do mâu_thuẫn chuyện đất_đai biết gia_đình bà đ 61 tuổi con_trai 3 con_gái bà đ mảnh đất ngoài mặt_đường 3 mảnh đất ngõ đó suất đất ngoài mặt_đường bà đ chia con_trai còn 3 con_gái mỗi suất đất ngõ bên đồng_ý ký biên_bản phương_án trên tuy_nhiên 3 con_gái bà đ nhà_mẹ đẻ muốn đòi suất đất ngoài đường thế nhưng bà đ đồng_ý vì đất phân_chia rồi khoảng 9h30 sáng 30 10 3 con_gái mang can xăng khoảng 4 5 lít tới nhà_mẹ đẻ đổ sàn rồi phóng_hỏa lúc sự_việc xảy con_trai đang trên tầng nên bị_thương 2 3 con_gái b ỏn g nặng đang cấp_cứu bệnh_viện còn nhẹ tự sơ_cứu mẹ b ỏn g</t>
+  </si>
+  <si>
+    <t>yêu hiểu chuyện dễ bảo bao_giờ giận_dỗi chỉ có_thể đàn_ông theanh28_entertainment câu_chuyện tình_cảm éo_le chàng trai họ ô 20 tuổi quảng_đông trung_quốc mới_đây khiến cư_dân mạng nước dậy sóng cụ_thể chàng trai vốn mối tình say_đắm người_yêu ảo trên mạng hai làm_quen qua mạng hơn 2 trước thời_gian thường_xuyên trò_chuyện nhau thì tiến tới hẹn_hò cả hai thậm_chí còn cùng thừa_nhận đối_phương mối tình đầu nhau trong_suốt thời_gian hẹn_hò chàng trai_trẻ hết_lòng yêu_thương chiều_chuộng mua món quà tặng người_yêu bé_bỏng đổ gần đây chàng trai chủ_động làm thêm mỗi tháng kiếm 2000 tệ khoảng 7 triệu thì đều gửi người_yêu nửa tiêu vặt đáp trả món quà chàng trai bạn gái luôn vui_vẻ đón_nhận nói lời đường_mật mối quan_hệ cả hai cứ êm_đềm như_vậy chàng trai cảm_thấy bản_thân may_mắn vì bạn gái xinh_xắn dễ_thương vậy còn rất hiểu chuyện hề giận_dỗi vô_cớ gì chàng trai điều khiến rất lấy làm tự_hào mà đem khoe bạn_bè nhưng suốt 2 hẹn_hò chưa lần gặp người_yêu trực_tiếp vì bạn gái luôn từ_chối lý_do khác nhau lý_do bạn gái đem nhất_là phụ_huynh quản rất nghiêm muốn con yêu sớm do đó mới ngăn_cản bạn trai tới gặp nghe bạn gái từ_chối lần chàng trai_trẻ vì buồn_phiền lo_lắng nên đem câu_chuyện mình xin tư_vấn bạn ngờ ngay đó bạn phát_hiện điểm bất_thường bạn gái kể trên nguyên_nhân bạn nhìn ảnh bạn gái phát_hiện số tấm ảnh mái_tóc lệch hẳn xem thêm ảnh so_sánh thật kỹ bạn đưa kết_luận bạn gái kia đội tóc giả hơn_nữa đem hỏi bạn bên thiết_kế khẳng_định bức ảnh qua chỉnh_sửa lúc rằng chàng trai l ừa tuy_nhiên ô vẫn tin_tưởng hỏi trực_tiếp bạn gái mình ngờ ngay đọc tin nhắn chàng trai hỏi bộ tóc giả bạn gái nhanh tay chặn ngay chàng trai trả_lời bất_cứ câu nào vấn_đề kể trên mặc_dù rất bất_ngờ hành_động bạn gái nhưng vì chưa câu trả_lời thuyết_phục nên chàng trai vẫn kiên_trì dò_hỏi thông_tin bạn gái sau_cùng vì làm_phiền quá bạn gái ô cuối_cùng liên_lạc thú_nhận mọi chuyện hóa_ra bạn gái hẹn_hò cùng ô 2 nay vốn đàn_ông dùng phần_mềm thay_đổi giọng nói hiệu_ứng chỉnh_sửa gương_mặt lẫn vóc_dáng giống con_gái chàng trai_trẻ suy_sụp chia_sẻ rằng tôi từng vì bạn gái mà từ_chối gái khác ý mình ngờ ấy đàn_ông cư_dân mạng khuyên chàng trai tố_giác vụ_việc lừa_đảo thấy sự_việc ngày_một lớn thu_hút sự chú_ý sau_cùng bạn gái kia nhắn_tin tuyên_bố trả tiền mong ô làm lớn chuyện thêm</t>
+  </si>
+  <si>
+    <t>xuất_khẩu lao_động 40 giải bài_toán việc_làm hồng_chiêu mỗi lao_động xuất_khẩu gửi 3 4 tỷ usd giúp làng quê thay_đổi tuy_nhiên lĩnh_vực chưa chiến_lược tổng_thể phần_lớn tay_nghề thấp</t>
+  </si>
+  <si>
+    <t>dàn sao dự đám_cưới diệu_nhi anh_tú tân_cao trấn thành ngọc_trinh minh_hằng lan_ngọc hội_tụ phan_thiết chúc_mừng hôn_lễ đôi diễn_viên diệu_nhi tú</t>
+  </si>
+  <si>
+    <t>dự_án đô_thị biển đâu mà to thế bùi_quang_minh bạn 16 chữ vàng vàng trung_quốc xây trái_phép căn_cứ quân_sự trên biển_đông chỗ mấy đảo nhỏ chim thèm ỉa đấy đảo đá_vành_khăn đá_chữ_thập quần_đảo trường_sa thuộc chủ_quyền đấy ít tự_hào rằng ta khôn_ngoan khéo_léo suốt thời_gian qua bạn vàng cướp nổi gì cả mà cướp thì đời chưa đòi đời khôn_ngoan khéo_léo đòi buộc nó trả trả lởi câu hỏi phóng_viên phát_ngôn bộ ngoại_giao tuyên_bố đầy_đủ bằng_chứng lịch_sử cơ_sở pháp_lý khẳng_định mọi</t>
+  </si>
+  <si>
+    <t>nghệ_sĩ hà_văn trọng qua_đời hà_thu nghệ_sĩ hà_văn_trọng đạo_diễn phim số đỏ mất sáng 21 10 bệnh_viện trung_ương quân_đội 108 thọ 85 tuổi</t>
+  </si>
+  <si>
+    <t>thiên_ân cơ_hội top 20 miss grand_international tân_cao đẹp đoàn_thiên_ân vượt thí_sinh thái_lan lượt bình_chọn cơ_hội top 20 chung_cuộc miss grand international 2022</t>
+  </si>
+  <si>
+    <t>đảo phú_quý hết xăng tư_huynh tất_cả cửa_hàng xăng dầu trên huyện đảo phú_quý đều hết sạch xăng hai ngày qua dân đây không_thể mua nhiên_liệu thiết_yếu</t>
+  </si>
+  <si>
+    <t>anna việt nam chính_thức khởi_tố theanh28 chiều 12 10 thượng_tá trần_long_khánh thủ_trưởng cơ_quan cảnh_sát điều_tra công_an tp phan_thiết tỉnh bình_thuận ký quyết_định khởi_tố vụ án hình_sự đối_với n t v a tina_dương tội lạm_dụng tín_nhiệm chiếm_đoạt tài_sản</t>
+  </si>
+  <si>
+    <t>đỗ_mỹ_linh chuẩn_bị 5 váy cưới tân_cao hoa_hậu đỗ_mỹ_linh chọn bốn mẫu đầm chụp ảnh cưới châu âu thiết_kế diện hôn_lễ sẽ diễn ngày 23 10</t>
+  </si>
+  <si>
+    <t>thanh_niên chỉ còn triệu tài_khoản vẫn tự_tin đặt mua iphone 14 tặng crush theanh28_entertainment theo ghi_nhận p v đ chỉ còn vỏn_vẹn triệu đồng tài_khoản vẫn hết_sức tự_tin đặt iphone 14 chính hãng sự ngỡ_ngàng phần bốc_đồng mấy bạn hỏi chi_tiết hơn đ chia_sẻ bản_thân tin rằng món quà sẽ giúp đ người_yêu ngay lập_tức hỏi bí_quyết gì khiến đ tự_tin vậy anh_chàng biết thành_công săn ưu_đãi khủng nhất thị_trường đợt pre order mở thanh_toán bằng thẻ tín_dụng tpbank evo tích_góp thêm ưu_đãi bán_lẻ cộng tiện_ích thẻ hoàn tiền 10 lên 500k tháng chi_tiêu online thì đ khẳng_định sẽ mua iphone 14 giá chỉ bằng iphone 13 còn việc dù tài_khoản còn số tiền khiêm_tốn mà vẫn mạnh_mẽ chinh_phục sản_phẩm hot nhất hiện_nay thì đ nói thêm thẻ tín_dụng tpbank evo miễn lãi 45 ngày chuyển_đổi trả_góp 0 lãi_suất</t>
+  </si>
+  <si>
+    <t>bao_nhiêu dự_định ấp dủ dồn hết đây theanh28_entertainment đoạn clip chị_gái cô_dâu ghi đăng_tải trên mạng xã_hội theo lời chủ clip biết em_gái phải tích_góp hơn 26 mới đủ tiền lấy chồng thế nhưng đúng ngày tổ_chức lễ cưới mưa rất to ngay cả rạp cưới cổng hoa ngập biển nước cao gần mét bởi_vậy nên quan_khách không_thể lễ cưới chỉ đành tạm hoãn chứng_kiến bao công_sức lãng_phí cô_dâu khỏi buồn lòng cô_dâu chia_sẻ ngay dựng rạp cưới trời mưa rất to tuy_nhiên chẳng_thể ngờ rằng chỉ đêm nước dâng rất cao thậm_chí hơn cả nửa bàn ghế cổng hoa rạp cưới tất_cả đều lộn_xộn ướt nhẹp dù khá buồn nhưng cô_dâu vẫn cố tự an_ủi chính mình theo cô_dâu tiết_lộ trước tổ_chức lễ cưới gia_đình xem_ngày rất kĩ tháng chỉ 2 ngày tốt ngày 16 22 vì lo_sợ sang gần tháng 11 trời sẽ mưa nên cả quyết_định chọn ngày 16 sớm tuy_nhiên mọi chuyện như mong_đợi sự lạc_quan cô_dâu chú_rể khiến dân_tình khỏi ngỡ_ngàng dù không_thể tổ_chức lễ cưới nhưng họ vẫn coi đây kỉ_niệm đáng nhớ cuộc_đời mong rằng cả hai sẽ mãi hạnh_phúc như hiện_tại</t>
+  </si>
+  <si>
+    <t>vất_vả vì em theanh28_entertainment chàng trai chia_sẻ đoạn clip tặng quà người_yêu kèm theo dòng trạng_thái mong em yêu luôn cái nghề điều đáng nói đó chính sự đối_nghịch giữa trạng_thái hai đôi bàn_tay clip lột_tả rất rõ sự yêu_thương hi_sinh mà chủ clip dành bạn gái tay gái trắng_trẻo nõn_nà thì đôi tay bạn trai đầy vết chai_sạn đen_nhẻm theo_dõi trang cá_nhân chủ clip có_thể thấy anh_chàng thường_xuyên đăng_tải công_việc lao_động chân tay mình tuy công_việc nặng_nhọc khiến đôi tay trở_nên lấm_lem nhưng tất_cả chỉ đang phấn_đấu tương_lai sau_này tốt_đẹp hơn thế nhưng dù vất_vả đâu chủ clip vẫn cố_gắng dành_dụm mua tặng người_yêu chiếc nhẫn vàng thật đẹp tự mình đeo tay đáp tình_cảm bạn trai gái bên dưới phần bình_luận bày_tỏ đầy ngọt_ngào yêu_anh tình_cảm hai khiến dân_tình khỏi ngưỡng_mộ chúc phúc cặp đôi sẽ hạnh_phúc mãi</t>
+  </si>
+  <si>
+    <t>tìm thị_trường thu_nhập cao lao_động xuất_khẩu hồng_chiêu số lao_động xuất_khẩu sẽ duy_trì 100 000 mỗi tăng tỷ_lệ đào_tạo nghề bài_bản hướng tới thị_trường thu_nhập cao theo cục phó quản_lý lao_động ngoài nước nguyễn_gia_liêm</t>
+  </si>
+  <si>
+    <t>nữ tiktoker lê_quỳnh như đột_ngột qua_đời tuổi 29 theanh28 mới_đây thông_tin lê_quỳnh_như thí_sinh top 20 the_next face 2021 đột_ngột qua_đời khiến bàng_hoàng thương_xót rất bạn_bè đồng_nghiệp từng làm_việc chung gửi lời chia buồn tới gia_đình quỳnh_như lê_quỳnh_như 1994 quê đắk_lắk còn biết tiktoker sở_hữu hơn 200 nghìn lượt theo_dõi nàng tạo ấn_tượng xem bởi phong_cách thời_trang độc_đáo cá_tính đa_dạng</t>
+  </si>
+  <si>
+    <t>thạch_thu_thảo mang trang_phục sếu đầu_đỏ thi miss_earth hoàng_dung thạch_thu_thảo chọn bộ dạ_hội lấy cảm_hứng loài sếu đầu_đỏ truyền_tải thông_điệp bảo_vệ động_vật hoang_dã miss earth 2022</t>
+  </si>
+  <si>
+    <t>giám_đốc sở hứa từ_chức nếu giải_ngân xong tiền thuê hồng_chiêu giám_đốc sở lao_động thương_binh xã_hội tỉnh sơn_la nguyễn_tuấn cam_kết sẽ từ_chức nếu hôm_nay chi_trả xong tiền trọ 13 công_nhân</t>
+  </si>
+  <si>
+    <t>ái phương hát bình_yên chia_tay tân_cao ca_sĩ ái phương kể hành_trình tìm bình_yên tổn_thương tình_yêu qua mv đông_tây_nam_bắc</t>
+  </si>
+  <si>
+    <t>đỗ_mỹ_linh ngồi xe siêu sang chồng tân_cao hoa_hậu đỗ_mỹ_linh doanh_nhân đỗ vinh_quang rước dâu bằng xe rolls royce_phantom chiều 23 10</t>
+  </si>
+  <si>
+    <t>nghệ_sĩ hoài_phương sáng_tác nhạc tặng bà_xã việt_hương thanh_hy nghệ_sĩ hoài_phương sáng_tác ca_khúc queen of roses tặng sinh_nhật việt_hương kỷ_niệm 4 thành_lập hương_thị ra_mắt sản_phẩm mới</t>
+  </si>
+  <si>
+    <t>dự_án công_viên hà_nội chậm tiến_độ võ_hải 9 dự_án công_viên mới hà_nội chưa khởi_công hoặc chưa hoàn_thành việc cải_tạo công_viên cũ gặp bất_cập theo sở xây_dựng hà_nội</t>
+  </si>
+  <si>
+    <t>tuần trước thua đội cuối bảng tuần thua đội đứng thứ 19 theanh28 trận thua khó tin trước nottingham forest tuần trước tuần liverpool trở sân_nhà anfield chỉ việc tiếp_đón leeds_united đội bóng đang xếp thứ 19 trên bxh cứ tưởng điểm_tựa sân_nhà nơi khiến man city phải ôm hận cách đây 2 tuần sẽ giúp liverpool dễ_dàng chiến_thắng nhưng the_kop thua sốc 2 trước leeds_united qua đó trận thua thứ 2 liên_tiếp trước 2 đội đứng đội_sổ giờ lữ_đoàn đỏ vẫn chỉ 16 điểm đứng thứ 9 trên bxh</t>
+  </si>
+  <si>
+    <t>uỷ_ban kinh_tế hệ luỵ thị_trường trái_phiếu chứng_khoán bất_ổn anh_minh uỷ_ban kinh_tế đề_nghị làm rõ trách_nhiệm quản_lý nhà_nước việc thị_trường bất_động_sản trái_phiếu chứng_khoán vừa_qua tăng_trưởng nóng tiềm_ẩn rủi_ro</t>
+  </si>
+  <si>
+    <t>phụ_nữ độc_thân chưa con ngày_càng giàu hơn zing vướng_bận chuyện gia_đình đặt nhu_cầu sự_nghiệp hưởng_thụ bản_thân làm ưu_tiên trước nhất phụ_nữ chọn kết_hôn hay con đang tích_lũy tài_sản hơn</t>
+  </si>
+  <si>
+    <t>đêm hội trăng rằm trẻ hoàn_cảnh khó_khăn minh_huy đêm hội trăng rằm hoạt_động ý_nghĩa như múa_lân ca_nhạc tặng quà trẻ_em khó_khăn diễn thành_phố mới bình_dương</t>
+  </si>
+  <si>
+    <t>lý á bằng tôi thích đóng phim như_anh tài_tử trung_quốc lý á bằng nói ngừng đóng phim vì công_việc mang niềm vui dù tung_hô</t>
+  </si>
+  <si>
+    <t>xây_dựng tp hcm trở_thành điểm tầng_lớp trung_lưu trí_thức sơn_hà 10 25 tới trình_độ phát_triển tp hcm phải ngang tầm thành_phố lớn châu á điểm tầng_lớp trung_lưu trí_thức theo tổng_bí_thư nguyễn phú_trọng</t>
+  </si>
+  <si>
+    <t>bạn thân mà sao lạ lắm theanh28_entertainment chủ shop điện_thoại chia_sẻ lần đầu_tiên cuộc_đời 10 bán hàng mình gặp khách nữ chịu_chơi chịu chi mua lúc cả chục chiếc iphone 14 promax tặng hội bạn thân_nhân ngày 20 10 theo như lời phụ_nữ chia_sẻ lên kế_hoạch sớm muốn tạo nên sự bất_ngờ hội bạn thân luôn chia_sẻ động_viên lúc khó_khăn nhất phụ_nữ tiết_lộ thêm số tiền kiếm thực_hiện kế_hoạch nhờ công_việc tư_vấn tài_chính công_nghệ momi dfa tuy đây khoản tích_lũy dễ_dàng ngày ngày 2 nhưng rằng xã_hội hiện_đại càng cần đề_cao tình_cảm thay_vì com cóp bản_thân hào_phóng người_thân mới chân ái</t>
+  </si>
+  <si>
+    <t>bà nội đưa cháu dɑ ̣ o thì đau bụng bèn bé ngoài một_mình con dâu nóng_mặt đòi trả ʋề gấp th mẹ trẻ cɦo biết vốn_dĩ hôm đó ʋề sớm hơn thường_lệ bộ xa thấy thấp thoɑ ́ ng bóng mẹ chồng con_trai nhỏ 9 tháng chiều nào bà đưa cháu dɑ ̣ o chủ_yếu muốn gặp già khác xung_quanh trò_chuyện tán_gẫu con dâu hài_lòng chút nào vì có_khi trời vừa mưa xong thì bà vẫn đưa cháu dɑ ̣ o tuy_nhiên vẫn bỏ_qua tất_cả ƭận mắt chứng_kiến cảnh con_trai nhỏ chơ_vơ ngoài đường một_mình</t>
+  </si>
+  <si>
+    <t>vì_sao đà_lạt ngập sâu mưa phước_tuấn phát_triển ồ_ạt nhà_kính làm nông_nghiệp bêtông_hóa quá nhanh chiếm hết không_gian xanh khiến thành_phố du_lịch thường ngập_úng mưa lớn theo chuyên_gia</t>
+  </si>
+  <si>
+    <t>nước lũ tràn vùng trũng thừa_thiên_huế võ_thạnh khu dân_cư xã dọc sông bồ huyện quảng_điền nước lũ bủa_vây tuyến đường ngập sâu nửa mét</t>
+  </si>
+  <si>
+    <t>12 nghiện trà sữa gái hà_nội tiêu tốn gần nửa tỷ đồng vozer trưởng_phòng công_ty truyền_thông mức lương hấp_dẫn 18 triệu đồng tháng lúc cao_điểm chị h chi 3 thu_nhập thói_quen uống trà sữa hàng ngày trung_bình mỗi ngày uống 2 3 cốc</t>
+  </si>
+  <si>
+    <t>bình_phước tham_gia liên_kết vùng xuất_khẩu nông_sản thế_đan bảy tỉnh gồm bình_phước bình_dương tây_ninh đồng_nai lâm_đồng đắk nông đắk_lắk xây_dựng vùng trồng đăng_ký xuất_khẩu trung_quốc</t>
+  </si>
+  <si>
+    <t>chính_thức netflix xác_nhận phát_hành độc_quyền toàn châu á series phim đầu_tiên mang tên kẻ độc_hành huỳnh_lập theanh28 kẻ độc_hành trải qua thời_gian hơn hậu_kì nội_dung vô_cùng ấn_tượng thế_giới tâm_linh sự đầu_tư chỉnh chu ekip theo chia_sẻ mới nhất ekip huỳnh_lập kẻ độc_hành phần tiền truyện web drama ai chết giơ_tay thời_lượng 8 tập phim sẽ đưa khán_giả câu_chuyện tâm_linh đậm chất như ma da vong tiền chủ cô_hồn ngoài đường phim sẽ phát_hành trên nền_tảng netflix ngày 28 10 2022</t>
+  </si>
+  <si>
+    <t>ba lý_do quận huyện tp hcm chậm chi tiền hỗ_trợ nhà_trọ lê_tuyết hồ_sơ doanh_nghiệp nộp quận tắc chờ xác_nhận đủ ba tháng cán_bộ sợ sai kỷ_luật nguyên_nhân khiến gói hỗ_trợ nhà_trọ tp hcm chậm_trễ</t>
+  </si>
+  <si>
+    <t>bảo_ngọc tôi trầy da tróc vảy mới đoạt hoa_hậu tân_cao ngọc_thịnh bảo ngọc nói xứng_đáng đăng_quang hoa_hậu liên lục_địa nhờ nỗ_lực liên_tục bận_tâm lời chê dư_luận</t>
+  </si>
+  <si>
+    <t>tp hcm giám_sát giải_quyết kiến_nghị dân qua bản_đồ số thu_hằng hệ_thống điều_hành xử_lý kiến_nghị dân doanh_nghiệp qua biểu_đồ nhiệt bản_đồ số theo thời_gian thực chính_quyền thành_phố thử_nghiệm 8 8</t>
+  </si>
+  <si>
+    <t>jack chính_thức rời công_ty lần thứ 2 lập công_ty riêng theanh28 loạt ồn_ào jack chính_thức rời công_ty cũ tự thành_lập công_ty riêng lấy tên j97_entertainment thông_tin màn comeback hé lộ trước đó</t>
+  </si>
+  <si>
+    <t>antony đáp trả_lời_nói huyền_thoại paul scholes theanh28 paul_scholes chia_sẻ pha quay bóng 720 độ antony chẳng khác_nào diễn hề trên sân thì chủ_nhân skill lên_tiếng đáp trả chúng_tôi biết thứ nghệ_thuật tạo trên sân_cỏ tôi sẽ ngừng phô_diễn gì định_hình nên bản_thân mình antony chia_sẻ trên instagram cá_nhân</t>
+  </si>
+  <si>
+    <t>tiến_sỹ nhưng lương bằng nhân_viên văn_phòng bình_thường theanh28_entertainment mới_đây tiến_sĩ trẻ học nước_ngoài vừa giảng_dạy nghiên_cứu khoa_học vừa giao đủ thứ việc nhưng chỉ nhận mức lương 6 triệu đồng tháng thu_nhập tăng thêm rất thấp mức lương giảng_viên lên mạng tìm_kiếm việc_làm thêm ý_định chuyển sang nơi khác biết đây giảng_viên trường đh công_lập khu_vực đồng_bằng sông cửu_long mới học tiến_sĩ nước_ngoài tiến_sĩ viết em mới tốt_nghiệp tiến_sĩ dạy trường công mức lương thấp 6 triệu tiền thưởng công_bố thấp rất khó mới nhận em 5 công_bố ssci ngành quản_lý gồm 3 bài báo q1 2 bài độc_lập bài đồng tác_giả bài báo q2 độc_lập q4 độc_lập khả_năng nghiên_cứu độc_lập em mong_muốn có_thể làm nghiên_cứu bán thời_gian trường tổ_chức khác kiếm thêm thu_nhập tiến_sĩ biết mình du_học lĩnh_vực quản_lý vận_tải bằng học_bổng tự tìm_kiếm quá_trình học trường đh đóng bảo_hiểm trả lương triệu đồng tháng trước ký cam_kết sẽ công_tác trường 10 nếu sẽ phạt gấp 3 lần số tiền trường cấp khoảng hơn 100 triệu đồng nói thêm thu_nhập tiến_sĩ hay mỗi mà dạy vượt thì 100 giờ chỉ trả 7 triệu đồng chỗ tôi trường tư ngoài xin dạy chưa kể lịch dạy trường kín tuần thêm công_việc cố_vấn học_tập hướng_dẫn sinh_viên tôi đang cân_nhắc việc chuyển sang trường khác vì lương hiện_tại thấp trường mặn mà gì nghiên_cứu khoa_học</t>
+  </si>
+  <si>
+    <t>dân tp hcm kiến_nghị giữ sổ hộ_khẩu đình_văn rằng sổ hộ_khẩu sắp hết giá_trị dân mong_muốn giữ làm kỷ_niệm thay_vì thu_hồi cập_nhật thông_tin cư_trú</t>
+  </si>
+  <si>
+    <t>cần xác_định khu lưu_trú công_nhân xã_hội lê_tuyết theo doanh_nghiệp việc xây_dựng khu lưu_trú công_nhân khu công_nghiệp cần ưu_đãi tiền thuê đất vốn vay giống như dự_án xã_hội</t>
+  </si>
+  <si>
+    <t>barca mùa thứ 2 liên_tiếp uống c2 theanh28 mặc_dù tậu lewan đỗ chính bayern thế nhưng barca vẫn khá_khẩm hơn đối_đầu trước đội bóng_nước đức tiếp_tục thua tan_nát 0 3 trên sân nou camp rạng sáng nay trận thua giúp barca vị_trí thứ 3 vẫn vượt qua vòng bảng lọt vòng knock out europa_league chứ phải uefa champions_league</t>
+  </si>
+  <si>
+    <t>công_dân việt nam thiệt_mạng thảm_kịch halloween hàn_quốc theanh28 theo phóng_viên ttxvn seoul đại_sứ_quán hàn_quốc xác_nhận công_dân thiệt_mạng thảm_họa giẫm_đạp itaewon seoul</t>
+  </si>
+  <si>
+    <t>hot đoàn_thiên_ân_hội_ngộ top 4 mgv ntk quách thái_công tình_tứ bên bạn trai mừng sinh_nhật 8 tuổi shynh_house theanh28 tối qua mạng xã_hội xôn_xao hình_ảnh hoa_hậu đoàn_thiên_ân cùng top 4 miss grand vietnam 2022 đọ sắc outfit hồng cực cháy ngoài sự tham_gia nàng hậu buổi sinh_nhật mang phần ấm_cúng còn quy_tụ dàn sao cực chất hit chớ nên sớm chưa quên người_yêu cũ bước bên em gây chú_ý nhất sự xuất_hiện cặp đôi ntk quách thái_công bạn trai huy_yves tình_tứ bên nhau thưởng_thức màn trình_diễn đông_nhi hà_nhi trọng hiếu không_thể thiếu màn quẩy sung_sức dj mie</t>
+  </si>
+  <si>
+    <t>ý_kiến trái chiều đề_xuất giảm mức hưởng bhxh lần lê_tuyết theo cơ_quan quản_lý chỉ rút phần đóng lao_động sẽ hạn_chế nhận bảo_hiểm xã_hội lần song chuyên_gia rằng giải_quyết gốc_rễ mà còn gây bất_ổn</t>
+  </si>
+  <si>
+    <t>bộ_trưởng công_thương miền nam thiếu xăng vì phụ_thuộc xăng_lậu anh_minh tình_trạng cây_xăng đóng_cửa chỉ tập_trung tp hcm tỉnh phía nam khu_vực trước đây phụ_thuộc nguồn xăng trôi_nổi theo bộ_trưởng nguyễn_hồng_diên</t>
+  </si>
+  <si>
+    <t>vì_sao mỹ ko bỏ đài_loan facebook mỹ muốn bảo_vệ đài_loan bởi lịch_sử định_hình bởi vị_trí chiến_lược đài_loan bởi chặt đứt sự trỗi dậy trung_quốc thái_bình_dương trump đảo_ngược chính_sách lập_lờ mỹ đài_loan suốt 4 thập_kỷ trước đó đẩy quan_hệ mỹ đài_loan khỏi vùng xám vùng có_thể thoả_hiệp hoặc từ_bỏ thế cờ_vây tài_hoa đài_loan đặt tham_vọng trung_quốc chảo lửa chính_quyền kế_nhiệm mỹ không_thể buông tay</t>
+  </si>
+  <si>
+    <t>hoàng_bách tôi sợ vợ hoàng_dung tuấn_việt nhạc_sĩ hoàng_bách nói sợ biết_ơn vợ doanh_nhân thanh_thảo vì hy_sinh thấu_hiểu đồng_hành 16 qua</t>
+  </si>
+  <si>
+    <t>áp_lực kiếm tiền lao_động xa xứ đức_hùng liên_tục làm thêm thành 12 tiếng mỗi ngày ăn cơm chung cụ già trại dưỡng_lão chị hồng muốn tích_cóp tiền tối_đa gửi quê nuôi bốn con ăn_học</t>
+  </si>
+  <si>
+    <t>bảo_tàng tượng sáp bỏ_hoang gia nghĩa bạn muốn trải nghiệm theanh28 đây có_lẽ tàn_tích cuối_cùng còn sót bảo_tàng tượng sáp gia_nghĩa chắc rất dân địa_phương biết nơi tuy gọi bảo_tàng tượng sáng nhưng đưa tay sờ thử thì thực_chất đồ nhựa bảo_tàng chia thành hai khu_vực khu triển_lãm con đường cổ khu trưng_bày câu_chuyện lịch_sử khuôn_viên_ngoại_trừ bảo_tàng tượng sáp còn một_vài thiết_bị trò_chơi cảnh_quan đơn_giản hình_như kiểm_tra định_kỳ khuyến_khích chơi kinh_nghiệm trốn bảo_vệ chơi</t>
+  </si>
+  <si>
+    <t>triệu văn_trác tôi phước mới gặp vợ như_anh triệu văn_trác sao võ_thuật trung_quốc nói phúc mới gặp vợ trương đan_lộ gắn_bó 20 qua</t>
+  </si>
+  <si>
+    <t>tp hcm sắp thêm hơn 2 000 xã_hội gia_minh hai dự_án xã_hội 2 064 căn xây quận 7 tp thủ_đức cuối tháng 8 giúp công_nhân thu_nhập thấp dễ tiếp_cận theo sở xây_dựng thành_phố</t>
+  </si>
+  <si>
+    <t>phương anh_đào tôi thiết yêu_đương tuổi 30 mai_nhật phương anh_đào nói chia_tay mối tình tập_trung sự_nghiệp chưa vội kết_hôn tuổi 30</t>
+  </si>
+  <si>
+    <t>bảo_ngọc đăng_quang hoa_hậu liên lục_địa 2022 tân_cao bảo_ngọc 21 tuổi cao 85 m vượt 70 thí_sinh đoạt vương_miện miss intercontinental 2022 chung_kết sáng 15 10 giờ hà_nội</t>
+  </si>
+  <si>
+    <t>biển ngoài hành_tinh sâu 100 mét thế_giới y_hệt trái_đất cổ_đại thư báo nlđ khoa_học nasa xác_định vùng_biển mê tan lỏng sâu 100 mét mặt_trăng titan sao thổ nơi mà khí_hậu địa_hình bản_sao hoàn_hảo trái_đất vài tỉ trước</t>
+  </si>
+  <si>
+    <t>đưa mo_cau thế_giới phạm_linh đam_mê làm_giàu phế_phẩm nông_nghiệp nguyễn_văn_tuyến 38 tuổi biến mo_cau thành chén đĩa xuất hàn_quốc canada mỹ</t>
+  </si>
+  <si>
+    <t>bộ y_tế lên_tiếng phản_ánh đại_biểu quốc_hội viết_tuân ngày đại_biểu nguyễn tri_thức giám_đốc bệnh_viện chợ_rẫy phản_ánh quốc_hội việc khó mua thiết_bị đại_diện bộ y_tế lên_tiếng phản_hồi</t>
+  </si>
+  <si>
+    <t>hơn 200 cửa_hàng 7 tỉnh_thành hết sạch xăng theanh28 chiều_tối 10 10 bộ công_thương báo_cáo tình_hình xăng dầu trên cả nước theo đó cơ_quan hơn 200 doanh_nghiệp kinh_doanh bán_lẻ xăng dầu xin đóng_cửa hoặc tạm ngừng kinh_doanh tập_trung tp hcm an_giang bình_phước đắk_lắk riêng tp hcm 121 cửa_hàng thông_báo tạm_thời hết xăng dầu qua kiểm_tra lực_lượng chức_năng xác_định_lý_do chính 121 cửa_hàng hết xăng do đặt xăng nhưng phía đơn_vị cung_cấp chưa phản_hồi hoặc chưa thông_tin thời_gian giao hàng</t>
+  </si>
+  <si>
+    <t>nội_dung bài phát_biểu hoàng tứ duy tổng_bí_thư đảng việt tân chuyến vận_động dân_chủ nhân_quyền việt nam quốc_hội canada việt_tân cảm_ơn quý_vị tham_dự buổi tiếp_tân hôm_nay tôi muốn chia_sẻ quý_vị tầm nhìn việt_tân đối_với tầm nhìn liên_quan như thế_nào lợi_ích canada vùng ấn_độ_dương thái_bình_dương gì chúng_ta có_thể làm thúc_đẩy lợi_ích chung mà tôi tin rằng đó tự_do dân_chủ hơn tôi nghĩ cách tốt nhất mô_tả ngày_nay giống như ly nước trên mặt đó ly nước nửa đầy dân năng_động làm_việc chăm_chỉ vị_trí chiến_lược tất_nhiên món ăn tuyệt_vời nền văn_hóa sôi_động nhưng ly nước nửa cạn sự phát_triển đồng_đều mức_độ tham_nhũng đàn_áp chính_trị trầm_trọng hàng trăm tù_nhân chính_trị rất mâu_thuẫn chính_phủ muốn thúc_đẩy kinh_tế tri_thức nhưng hạn_chế internet họ nói biến_đổi khí_hậu nhưng giam_giữ hoạt_động môi_trường đang hoạt_động sự thay_đổi tóm đó quốc_gia tiềm_năng to_lớn nhưng kìm_hãm bởi hệ_thống độc_tài cụ_thể đảng duy_nhất cầm_quyền còn theo chủ_nghĩa mác nhưng vẫn còn theo sát chủ_nghĩa lê nin ai biết rằng hệ_thống chính_trị tốt tuy_nhiên một_số bên ngoài có_thể nghĩ rằng thế_giới cần quan_tâm điều nhưng nay chúng_ta nhắc_nhở rằng thể_chế chuyên_quyền điều đáng lo_ngại cách chế_độ đối_xử dân mình ảnh_hưởng nước láng_giềng cộng_đồng quốc_tế rộng_lớn hơn cuộc xâm_lược ukraine chúng_ta thấy cách bạo_chúa tầm nhìn sai_lệch thế_giới có_thể gây rất đau_khổ nước láng_giềng chính dân mình gây nguy_hiểm phần còn thế_giới trung_quốc chúng_ta thấy chế_độ độc_tài vừa mối đe_dọa đối_với công_dân sống bên biên_giới nước vừa mối đe_dọa đối_với toàn_bộ khu_vực may_mắn thay phần_lớn thế_giới tập_hợp hỗ_trợ ukraine ngày_càng lãnh_đạo ủng_hộ đài_loan dân_chủ nhưng một_số quốc_gia hầu_hết đều hồ_sơ nhân_quyền tồi_tệ đang gây trở_ngại sự đồng thuận quốc_tế nước cộng_hòa xã_hội chủ_nghĩa quốc_gia như_vậy mọi cuộc bỏ_phiếu đại_hội_đồng liên_hiệp_quốc nay lên_án việc nga xâm_lược ukraine hành_động tàn_bạo đối_với thường_dân việc sáp_nhập bất_hợp_pháp lãnh_thổ ukraine chính_quyền hà_nội đều bỏ_phiếu_trắng đúng_ra vì lợi_ích chính mình cần ủng_hộ hệ_thống quốc_tế quốc_gia tôn_trọng hiến_chương liên_hiệp_quốc nguyên_tắc quốc_gia lớn hơn bắt_nạt nước láng_giềng nhỏ hơn tuy_nhiên vì bản_chất chuyên_quyền họ chế_độ hà_nội không_thể hành_động vì lợi_ích quốc_gia trên thực_tế hà_nội đang gây mất ổn_định khu_vực bằng cách lên kế_hoạch tập_trận nga đứng phía quân_đội myanmar gần đây nhất tham_gia hội_đồng nhân_quyền liên_hiệp_quốc che_đậy hành_vi vi_phạm_nhân_quyền chúng_tôi việt_tân hình_dung tôn_trọng chuẩn_mực quốc_tế trật_tự dựa trên luật_lệ đất_nước như_vậy sẽ tạo nên hiệp_hội quốc_gia đông_nam_á asean tự_do hơn đó có_thể giúp kiềm_chế khuynh_hướng tồi_tệ nhất bắc_kinh như_vậy sẽ dễ_dàng thu_hút nhân_tài sự ủng_hộ đông_đảo cộng_đồng việt nước_ngoài bao_gồm hàng trăm ngàn canada nhập_cư gốc việt thuộc thế_hệ thứ nhất thứ hai cộng_đồng có_thể đóng vai_trò cầu_nối giữa hai quốc_gia nâng cao vị_thế canada tư_cách quốc_gia ấn_độ_dương thái_bình_dương quyền_lực mềm canada vậy chúng_ta có_thể làm gì thứ nhất không_thể bỏ_qua chế_độ hà_nội làm đúng trách_nhiệm điều có_nghĩa_là thúc_giục chính_quyền hà_nội tôn_trọng cam_kết quốc_tế mà họ ký nay thành_viên hội_đồng nhân_quyền liên_hiệp_quốc càng phải trách_nhiệm hơn nữa thứ hai lên_tiếng chống hành_vi vi_phạm_nhân_quyền ví_dụ nghị_sĩ có_thể cân_nhắc việc nhận bảo_trợ tù_nhân lương_tâm vận_động họ trả tự_do thứ_ba canada nên làm_việc trực_tiếp dân bằng cách hỗ_trợ tổ_chức xã_hội dân_sự độc_lập đây lĩnh_vực mà cơ_quan đại_diện ngoại_giao canada có_thể tăng_cường nỗ_lực hiện_tại họ chúng_ta đều đồng_ý rằng vai_trò quan_trọng chiến_lược ấn_độ_dương thái_bình_dương canada câu hỏi đặt như thế_nào sẽ đối_tác đáng tin_cậy hơn chúng_tôi tin rằng vì lợi_ích chung cần phải quốc_gia tự_do dân_chủ cảm_ơn quý_vị</t>
+  </si>
+  <si>
+    <t>ca_sĩ hàn cưới nữ_hoàng trượt_băng thanh_thanh ca_sĩ ko_woo rim cưới kim_yuna cựu vận_động_viên biệt_danh nữ_hoàng trượt_băng hàn_quốc hơn 5 tuổi hôm 22 10</t>
+  </si>
+  <si>
+    <t>đề_nghị miễn hai loại thuế lao_động việt nhật hồng_chiêu bộ lao_động thương_binh xã_hội đề_nghị phía nhật_bản miễn thuế cư_trú thuế thu_nhập lao_động vì giảm 30 thu_nhập đồng yên rớt_giá</t>
+  </si>
+  <si>
+    <t>mạo_danh bảo_hiểm xã_hội lừa lao_động hồng_chiêu bảo_hiểm xã_hội cảnh_báo lao_động phía nam nhóm giả_danh cán_bộ cơ_quan lừa làm hồ_sơ nhận trợ_cấp thai_sản thất_nghiệp</t>
+  </si>
+  <si>
+    <t>danh_ca mù andrea_bocelli gây xúc_động lễ quả bóng_vàng tân_cao danh_ca mù italy andrea bocelli hát khúc aria nổi_tiếng nessun dorma gala quả bóng vàng 2022</t>
+  </si>
+  <si>
+    <t>mỹ_nhân vô_gian đạo khen dung_nhan tuổi 50 như_anh trần_tuệ_lâm đóng vô_gian đạo cùng lương triều_vỹ tạp_chí thời_trang khen sắc vóc tuổi 50</t>
+  </si>
+  <si>
+    <t>tháo ngòi_nổ giữa công_nhân giới chủ lê_tuyết mặt thuyết_phục công_nhân ngừng việc lưu_kim_hồng chủ_tịch công_đoàn công_ty nidec đề_nghị ban giám_đốc xem_lại mức tăng lương tránh đình_công</t>
+  </si>
+  <si>
+    <t>sai_lầm trọng_tài khiến bình định mất oan 2 điểm theanh28 trưởng ban trọng_tài vff dương văn_hiền thừa_nhận trọng_tài trần_ngọc nhớ quyết_định thổi penalty oan cầu_thủ bình_định trận gặp hagl hôm chiều 28 10</t>
+  </si>
+  <si>
+    <t>lương triều_vỹ thích xem phim mình đóng như_anh tài_tử hong_kong lương triều_vỹ nói thích xem phim từng đóng vì nếu xem sẽ nuối_tiếc</t>
+  </si>
+  <si>
+    <t>kanye west mất danh_hiệu tỷ_phú phương_mai rapper kanye west còn forbes xếp_hạng tỷ_phú adidas cùng đối_tác lớn khác chấm_dứt hợp_đồng</t>
   </si>
   <si>
     <t>nước tồn_tại trên sao thủy minh_long vnexpress phi thuyền mỹ vừa phát_hiện nước dạng băng trên sao thủy hành_tinh nhỏ nhất hệ mặt_trời</t>
   </si>
   <si>
-    <t>mỹ_nhân ấn_độ qua_đời tuổi 30 như_anh vaishali_takkar diễn_viên 30 tuổi ấn_độ phát_hiện chết nhà_riêng thư tuyệt_mệnh</t>
-  </si>
-  <si>
-    <t>công_nhân khó tìm việc lê_tuyết thời_gian ngồi yên việc hiện công_nhân thất_nghiệp do nhà_máy giảm đơn hàng ngưng tuyển_dụng cắt_giảm lao_động</t>
-  </si>
-  <si>
-    <t>chú chó bỏ mặc dầm mưa đám_cưới chủ trung_quốc zing video lan_truyền trên mạng chủ_nhân chú chó lên_tiếng_rằng do hoàn_cảnh bắt_buộc hề ý ngược_đãi thú cưng</t>
-  </si>
-  <si>
-    <t>ngô_văn_tuấn giữ chức tổng_kiểm_toán nhà_nước sơn_hà ngô_văn_tuấn phó_tổng kiểm_toán nhà_nước quốc_hội bầu giữ chức tổng_kiểm_toán nhiệm_kỳ 2021 2026 tỷ_lệ tán_thành 92 17 chiều 21 10</t>
-  </si>
-  <si>
-    <t>nguyên chánh_án tand tỉnh hòa_bình khai_trừ đảng viết_tuân hà_quang_dĩnh nguyên tỉnh_ủy_viên nguyên bí_thư ban cán_sự đảng nguyên chánh_án tand tỉnh hòa_bình ban bí_thư khai_trừ đảng</t>
-  </si>
-  <si>
-    <t>tp hcm giám_sát giải_quyết kiến_nghị dân qua bản_đồ số thu_hằng hệ_thống điều_hành xử_lý kiến_nghị dân doanh_nghiệp qua biểu_đồ nhiệt bản_đồ số theo thời_gian thực chính_quyền thành_phố thử_nghiệm 8 8</t>
-  </si>
-  <si>
-    <t>tuyển ae thất_nghiệp nhiệt_huyết đội t vì cái tết no_đủ dám chiến_đấu cùng t ko vozer t từng chốt 4 căn 2 tháng mà éo mất đồng phí quảng_cáo hiện rất muốn ae công_ty làm cùng t hướng_dẫn ae làm đc thì thôi cần kinh_nghiệm bằng_cấp gì đâu chỉ cần ae quyết_tâm nhiệt_huyết ham kiếm tiền đc</t>
-  </si>
-  <si>
-    <t>hồ_ngọc_hà_hủy_show mỹ tâm_giao đại_diện ca_sĩ hồ_ngọc_hà biết hủy loạt show mỹ vì sức_khỏe đảm_bảo</t>
-  </si>
-  <si>
-    <t>bạn thân mà sao lạ lắm theanh28_entertainment chủ shop điện_thoại chia_sẻ lần đầu_tiên cuộc_đời 10 bán hàng mình gặp khách nữ chịu_chơi chịu chi mua lúc cả chục chiếc iphone 14 promax tặng hội bạn thân_nhân ngày 20 10 theo như lời phụ_nữ chia_sẻ lên kế_hoạch sớm muốn tạo nên sự bất_ngờ hội bạn thân luôn chia_sẻ động_viên lúc khó_khăn nhất phụ_nữ tiết_lộ thêm số tiền kiếm thực_hiện kế_hoạch nhờ công_việc tư_vấn tài_chính công_nghệ momi dfa tuy đây khoản tích_lũy dễ_dàng ngày ngày 2 nhưng rằng xã_hội hiện_đại càng cần đề_cao tình_cảm thay_vì com cóp bản_thân hào_phóng người_thân mới chân ái</t>
-  </si>
-  <si>
-    <t>nhà_máy sắp_xếp công_nhân nghỉ tết dài ngày lê_tuyết lịch nghỉ tết nhà_nước chỉ mang tính tham_khảo nhà_máy_chủ_động bố_trí công_nhân nghỉ dài ngày phù_hợp tình_hình sản_xuất</t>
-  </si>
-  <si>
-    <t>bí_ẩn tấm bản_đồ cổ chứng_minh trái_đất phẳng vtc vn mới_đây đàn_ông tặng thư_viện quốc_hội mỹ tấm bản_đồ 120 năm_tuổi chứng_minh lý_luận trái_đất phẳng</t>
-  </si>
-  <si>
-    <t>lương triều_vỹ thích xem phim mình đóng như_anh tài_tử hong_kong lương triều_vỹ nói thích xem phim từng đóng vì nếu xem sẽ nuối_tiếc</t>
-  </si>
-  <si>
-    <t>đấu_giá du_thuyền flc giá khởi_điểm hơn 35 tỷ đồng theanh28 chiếc du_thuyền tên flc albatross thuộc dòng galeon 660 fly đóng ba lan 2017 du_thuyền chiều dài lớn nhất 21 95 m chiều rộng_lớn nhất 5 25 m flc albatross đăng_ký 2018 giá khoảng 44 tỷ đồng gần 2 triệu usd công_ty đấu_giá minh_pháp sẽ tổ_chức đấu_giá du_thuyền flc đầu tháng 11 mức giá khởi_điểm du_thuyền hơn 35 7 tỷ đồng tham_gia đấu_giá phải nộp trước 10 giá khởi_điểm tương_đương gần 3 6 tỷ đồng</t>
-  </si>
-  <si>
-    <t>tp hcm lún bình_quân 2 cm mỗi  nền đất thành_phố sụt lún trung_bình khoảng 2 cm mỗi nơi 6 cm đô_thị 10 triệu dân đối_mặt tình_trạng ngập_lụt thường_xuyên hơn</t>
-  </si>
-  <si>
-    <t>chàng trai xe tiền tỷ tặng bạn gái cả vòng kim_cương nhưng vẫn cao lên 15cm vì quá mải tập_trung làm_ăn  câu_chuyện có_lẽ riêng ai thời_đại công_nghệ 4 0 mạng xã_hội bùng_nổ lúc mọi sẽ mối khác ngon hơn chàng trai mới_đây chẳng ngoại_lệ chỉ vì lo người_yêu sau_này sẽ cuộc_sống ấm_êm mà tập_trung sự_nghiệp kiếm tiền chính vì điều đó mà thời_gian dành bạn gái gần như_không mặc_dù xe tiền tỷ tặng cả vòng kim_cương nhưng người_yêu vẫn giúp tăng thêm 15cm thế mới thấy chị_em mà muốn chồng giàu thì phải chấp_nhận ta thời_gian mình muốn chồng đẹp zai thì phải chấp_nhận ta nhòm_ngó muốn thời_gian bên cạnh mình thì phải chấp_nhận ta giàu_sang</t>
-  </si>
-  <si>
-    <t>rửa chân 10 đàn_ông massage khiến đàn cá cùng qua_đời gamek vn rửa chân 10 đàn_ông massage khiến cả đàn cá cùng đăng xuất wong nhân_viên văn_phòng bắc_kinh trung_quốc rất ít thời_gian chăm_sóc bản_thân vì áp_lực công_việc rồi ngày anh_chàng bất_ngờ người_yêu thông_qua buổi hẹn_hò mai_mối sắp_đặt trước người_yêu wong rủ tới tiệm massgae chân thông_qua hình_thức ngâm chân bể nước rồi cá rỉa thế nhưng chẳng ai_ngờ chỉ ít_lâu wong nhúng chân toàn_bộ cá bể đều lần_lượt đăng xuất bằng hết tới đây trước sức_ép phía quản_lý wong mới thành_thật khai nhận rằng mình rửa chân suốt 10 hề ý_định phá_hoại tiệm massage may bạn gái wong thông_cảm điều yêu_cầu anh_chàng chia_tay</t>
-  </si>
-  <si>
-    <t>antony đáp trả_lời_nói huyền_thoại paul scholes theanh28 paul_scholes chia_sẻ pha quay bóng 720 độ antony chẳng khác_nào diễn hề trên sân thì chủ_nhân skill lên_tiếng đáp trả chúng_tôi biết thứ nghệ_thuật tạo trên sân_cỏ tôi sẽ ngừng phô_diễn gì định_hình nên bản_thân mình antony chia_sẻ trên instagram cá_nhân</t>
-  </si>
-  <si>
-    <t>hà_nội hỗ_trợ tiền đóng bảo_hiểm xã_hội tự_nguyện lao_động võ_hải chính_quyền thủ_đô trích kinh_phí ngân_sách hỗ_trợ tiền đóng bhxh tự_nguyện dân trên địa_bàn mức 10 30 tùy_nhóm</t>
-  </si>
-  <si>
-    <t>nông_dân tăng thu_nhập nhờ nuôi chim trĩ lươn bùn cẩm_liên nông_dân huyện đồng_phú chủ_động thay_đổi mô_hình chăn_nuôi sang chim trĩ lươn bùn tăng thu_nhập tạo công ăn việc_làm tại_chỗ</t>
-  </si>
-  <si>
-    <t>cộng_sản vẽ bánh việt_tân_page facebook hôm 26 tháng mười 2022 trang thông_tin chính_phủ đưa tuyên_bố tầm nhìn tới 2050 trở_thành nước phát_triển thu_nhập cao ngay_lập_tức phía bên dưới facebook khanh_hung bình_luận mỗi 40 qua ít_nhất lần nghe tuyên_bố nhiệm_kỳ vị cứ 5 lần mỗi lần vị lên tìm cách vốn bằng thì lấy cơ_sở nào đòi nước phát_triển thu_nhập cao</t>
-  </si>
-  <si>
-    <t>tìm thị_trường thu_nhập cao lao_động xuất_khẩu hồng_chiêu số lao_động xuất_khẩu sẽ duy_trì 100 000 mỗi tăng tỷ_lệ đào_tạo nghề bài_bản hướng tới thị_trường thu_nhập cao theo cục phó quản_lý lao_động ngoài nước nguyễn_gia_liêm</t>
-  </si>
-  <si>
-    <t>nawat cảm_ơn fan việt vì unfollow theanh28 mất khoảng 2 triệu lượt theo_dõi trên ig vài trăm_nghìn trên fanpage thì cách đây vài phút chủ_tịch miss grand international chính_thức dòng chia_sẻ như tôi kiểm_tra instagram mgi tất_cả lượt bỏ theo_dõi đều cảm_ơn bỏ theo_dõi chúng_tôi luôn tôn_trọng công_bằng tất_cả mọi mọi đất_nước mr nawat viết bằng tiếng</t>
-  </si>
-  <si>
-    <t>lâm_chí_linh trầm_cảm sinh như_anh minh_tinh đài_loan lâm_chí_linh trầm_cảm sinh con tuổi gần 50 chồng vực dậy tinh_thần</t>
-  </si>
-  <si>
-    <t>bố chồng trực đêm lương hơn 5 triệu đưa hết con dâu tiền nuôi cháu th mới_đây bố chồng bạc_châu an_huy khiến cư_dân mạng xuýt_xoa bàn_tán sôi_nổi hành_động vô_cùng ý_nghĩa mình biết dù hơn tuổi nghỉ hưu nhưng vẫn quyết_định làm_vì cɦo rằng sức_khỏe mình vẫn tốt lúc còn cố_gắng trực đêm tăng cao thu_nhập ngày nọ trực ca đêm bố chồng hành_động khiến con dâu vô_cùng bất_ƞǥờ đưa toàn_bộ số lương mình vừa nhận con dâu con dâu đồng đồng mua_sắm thứ thứ kia cháu ǥái</t>
-  </si>
-  <si>
-    <t>hn dân hoang_mang vì tin_đồn sữa đỉa dương_tùng 24h com vn ngày gần đây một_số huyện ngoại_thành hà_nội như mê_linh sóc_sơn đông_anh rộ lên tin_đồn phụ_nữ pha sữa con lúc thấy con đỉa đang bơi đó</t>
-  </si>
-  <si>
-    <t>dân tp hcm kiến_nghị giữ sổ hộ_khẩu đình_văn rằng sổ hộ_khẩu sắp hết giá_trị dân mong_muốn giữ làm kỷ_niệm thay_vì thu_hồi cập_nhật thông_tin cư_trú</t>
-  </si>
-  <si>
-    <t>án_mạng gần 3 nha trang mới xác_định nghi phạm ra_tay theanh28 vụ_việc xảy 2019 tp nha_trang tỉnh khánh_hòa nhưng phải 2 rưỡi điều_tra công_an tỉnh khánh_hòa mới xác_định 2 nghi phạm gây vụ_việc trên nghi phạm gây án b c s 28 tuổi đang tạm giam trại tạm giam công_an tỉnh khánh_hòa hành_vi t rộ m c ắ p tài_sản còn nạn_nhân h q b 36 tuổi ngụ tp nha_trang</t>
-  </si>
-  <si>
-    <t>pgs nguyễn lân hiếu cần tuyên_bố kết_thúc đại_dịch covid 19 viết_tuân theo bác_sĩ nguyễn lân hiếu cần tuyên_bố kết_thúc đại_dịch covid 19 chuyển sang giai_đoạn mới hạn_chế tốn_kém thuốc vật_tư tiêu_hao</t>
-  </si>
-  <si>
-    <t>fred đại đế chấn bé đù nunez_tỏa sáng giúp đội 3 điểm theanh28 gì bất_ngờ trận man_united tottenham mà phải hành_quân sân old_trafford nơi khiến arsenal liverpool bại_trận thì gà trống thành london chung số_phận phơi_áo 2 0 sự_tỏa sáng fred đại đế bruno đó cầu_thủ mà mọi chê suốt thời_gian qua chấn_bé đù nunez tự ghi tên mình lên bảng điện_tử bằng bàn thắng duy_nhất giúp liverpool tiếp_tục 3 điểm thứ 2 liên_tiếp</t>
-  </si>
-  <si>
-    <t>nhận trợ_cấp thất_nghiệp vì quy_định tháng liền kề lê_tuyết quỹ bảo_hiểm_thất_nghiệp kết_dư hàng chục nghìn tỷ đồng nhưng lao_động mất việc nhận trợ_cấp do vướng quy_định tháng liền kề</t>
-  </si>
-  <si>
-    <t>ái phương hát bình_yên chia_tay tân_cao ca_sĩ ái phương kể hành_trình tìm bình_yên tổn_thương tình_yêu qua mv đông_tây_nam_bắc</t>
-  </si>
-  <si>
-    <t>tp hcm không_thể thu_hồi gần 400 tỷ đồng nợ bảo_hiểm lê_tuyết gần 7 500 doanh_nghiệp nợ bảo_hiểm xã_hội 396 tỷ đồng nhưng giải_thể dừng hoạt_động chủ bỏ trốn nên khó thu_hồi ảnh_hưởng 34 000 lao_động</t>
-  </si>
-  <si>
-    <t>vì_sao mỹ ko bỏ đài_loan facebook mỹ muốn bảo_vệ đài_loan bởi lịch_sử định_hình bởi vị_trí chiến_lược đài_loan bởi chặt đứt sự trỗi dậy trung_quốc thái_bình_dương trump đảo_ngược chính_sách lập_lờ mỹ đài_loan suốt 4 thập_kỷ trước đó đẩy quan_hệ mỹ đài_loan khỏi vùng xám vùng có_thể thoả_hiệp hoặc từ_bỏ thế cờ_vây tài_hoa đài_loan đặt tham_vọng trung_quốc chảo lửa chính_quyền kế_nhiệm mỹ không_thể buông tay</t>
-  </si>
-  <si>
-    <t>con_gái lấy chồng xa 2 chỉ gửi hũ cải chua mẹ_già kɦông dám ăn lúc mở vội báo cɑ ̉ nh sát th có_lẽ điều chạnh_lòng bố_mẹ gả con_gái lấy chồng xa phần vì nhớ thươƞǥ phần không_thể cận_kề bênh_vực hay an_ủi con mới_đây câu_chuyện mẹ 60 tuổi đòi công_lý cɦo đứa con xấu_số khiến thêm nghẹn_ngào mẹ tên thúy_ngọc 60 ƭuổi theo bà chia_sẻ trước đây bà chồng đam_mê công_việc nên tới 5 kết_hôn mới con lúc hai vợ_chồng tuổi trung_niên nên đứa con như món quà vô_giá tạo_hóa con_gái tên đình_đình bố_mẹ yêu_thương thiếu bất_cứ thứ gì đáp ngoan_ngoãn chăm học đáng tiếc đình_đình lên trung_học lúc bố qua_đời đó mọi gánh nặng gia_đình đè_nén lên vai bà ngọc nhưng vì tình_thương con nên bà chấp_nhận cáng_đáng tất_cả miễn_sao chứng_kiến con trưởng tɦành tương_lai tốt_đẹp</t>
-  </si>
-  <si>
-    <t>chủ_nhân chiếc vương_miện đính hơn 2500 viên đá_quý chính_thức lộ diện theanh28 khép chặng đường dài tìm_kiếm gái tài_sắc vẹn_toàn cảm_xúc đêm chung_kết miss fptu cần_thơ 2022 vinh_dự gọi tên nguyễn_ngọc_kiều_duy sbd 111 ngành ngôn_ngữ trở_thành hoa_khôi đại_diện nhan_sắc sinh_viên trường đại_học fpt cần_thơ</t>
-  </si>
-  <si>
-    <t>gs hoàng_văn_cường cơ_chế đang trói_buộc bệnh_viện công tự_chủ viết_tuân bệnh_viện lớn luôn quá_tải nhưng xin thôi tự_chủ thấy thất_bại chính_sách cơ_chế quản_lý bệnh_viện công_lập theo gs hoàng_văn_cường</t>
-  </si>
-  <si>
-    <t>ma_dong_seok bí_mật kết_hôn như_anh ma_dong_seok tài_tử hàn đóng train to busan tiết_lộ kết_hôn huấn_luyện_viên thể_hình ye jung_hwa</t>
-  </si>
-  <si>
-    <t>tù 2 vì lấy tiền bà ngoại mua iphone 13 promax tặng bạn gái theanh28 ngày 23 9 tand huyện chợ mới tỉnh an_giang tuyên bị_cáo t n s 23 tuổi huyện chợ mới 2 t ù tội t rộm c ắp tài_sản theo cáo_trạng sáng 18 5 s chạy xe_máy học nghề sửa_chữa máy_nổ chạy ngang qua bà ngoại xã hòa_bình bị_cáo thấy cửa_mở biết bà ngoại s nảy_sinh ý_định t rộm c ắp tài_sản mở két lấy trộm 74 5 triệu đồng chiều cùng ngày s mua điện_thoại iphone 13 promax trị_giá gần 35 triệu đồng tặng bạn gái</t>
-  </si>
-  <si>
-    <t>xuất_hiện bằng_chứng mới sự sống trên mặt_trăng báo lao_động đất mặt_trăng hoàn_toàn có_thể nuôi_dưỡng sự sống chỉ vi_sinh_vật sơ_khai mà còn cái cây hẳn_hoi phát_triển vô_cùng mạnh_mẽ</t>
-  </si>
-  <si>
-    <t>công_cuộc đốt lò trọng việt_tân công_cuộc đốt lò trọng loại_trừ tham_nhũng mà chỉ khui hũ mắm dân thấy lúc_nhúc giòi đó</t>
-  </si>
-  <si>
-    <t>quy_định tháng liền kề làm lệch nguyên_tắc bảo_hiểm_thất_nghiệp lê_tuyết quy_định tháng liền kề khiến đóng bảo_hiểm_thất_nghiệp hỗ_trợ mất việc làm sai_lệch nguyên_tắc hoạt_động quỹ theo nguyên lãnh_đạo bảo_hiểm xã_hội tp hcm</t>
-  </si>
-  <si>
-    <t>bằng_chứng sốc sinh_vật sống đang hiện_diện trên sao kim thư báo nlđ khoa_học mỹ xác_định thành_phần chỉ có_thể tạo bởi sự sống đám mây sao kim</t>
-  </si>
-  <si>
-    <t>gwyneth paltrow tôi hạnh_phúc tuổi 50 no minh_tinh gwyneth paltrow biết yêu bản_thân tự_tin làn da hơn kể bước sang tuổi 50</t>
+    <t>tăng lương sớm sẽ tạo tiền_đề cải_cách tiền_lương hồng_chiêu chuyên_gia đồng_tình sớm điều_chỉnh lương cơ_sở đầu 2023 tạo tiền_đề khởi_động cải_cách tiền_lương vài lần lỡ hẹn</t>
+  </si>
+  <si>
+    <t>hình_ảnh sinh_vật lạ giống sói khiến dân mạng xôn_xao tranh_cãi theo dân_trí sự xuất_hiện sinh_vật lạ hình_ảnh do camera giám_sát ghi khiến xem bối_rối gây tranh_cãi cộng_đồng mạng</t>
+  </si>
+  <si>
+    <t>trâm học catwalk thi mrs international_global 2022 hải_my nữ doanh_nhân catwalk trainer bi tô rèn_luyện kỹ_năng đi_đứng uyển_chuyển dự thi hoa_hậu quý bà quốc_tế 2022 tháng 2023 malaysia</t>
+  </si>
+  <si>
+    <t>diva trần thu hà phan mạnh quỳnh chia_sẻ nhau giao_lộ thời_gian theanh28 diva nhạc việt dành lời khen tác_giả ca_khúc chàng trai viết lên cây phan_mạnh_quỳnh kho âm_nhạc phong_phú đa_dạng phong_cách chứ chỉ nhạc phim hay nhạc trữ_tình như mọi nói âm_nhạc phan_mạnh quỳnh viết giống như kể chuyện rất gần_gũi phong_cách tôi còn phan_mạnh_quỳnh vừa cảm_thấy vinh_dự nhưng rất áp_lực trước đàn chị diva phải danh_hiệu nói_chơi mà trải qua năm_tháng thể_hiện đẳng_cấp chị hà_trần còn quỳnh_chỉ mới diễn cách đây 2 chuẩn_bị sự thay_đổi âm_nhạc vì_thế nói đẳng_cấp ca_hát thì quỳnh_thua chị hà bậc việc kết_hợp chị hà giao_lộ thời_gian trải nghiệm khó quên</t>
+  </si>
+  <si>
+    <t>con tɾai chơi game thi toàn điểm thấp bỗng ngày mẹ buông_xuôi thì con liên_tục đạt điểm_cao th đứa ƭɾẻ lúc_nào ƌó sẽ tự biết suყ nghĩ khôn lớƞ kɦôƞǥ cầƞ mẹ kè_kè bên cạnh đốc_thúc ɦoặc cɦỉ cɑ ́ c mẹ chịu buông ƅỏ cố cɦấp coƞ tự_do pɦɑ ́ t triển coƞ mới ƭɦể ƅộc_lộ hết khả_năng ɱìƞɦ chị bạn mẹ dịu_dàng xinh_đẹp thấu_hiểu con_cái 2 trước lần chị thấy bạn mắt toàn quầng thâm tóc thì rụng tá lả cổ_họng thì cứ khàn khàn nói_chuyện nǥuyên_nhân vì con_trai nghe lời ấy lo_lắng hai vợ_chồng đều tốt chẳng_lẽ con trở_thành côn_đồ đường_phố kết quɑ ̉ mấy ngày trước gặp ấy mọc tóc gương_mặt tươi_vui bởi_vì con_trai ấy ngoan_ngoãn công ăn việc_làm ổn_định thì_ra lúc trước chị chỉ lo bò trắng răng</t>
+  </si>
+  <si>
+    <t>ăn bạch_tuộc sống phát_hiện bạch_tuộc con khoang miệng mỹ_nga báo đại_đoàn_kết phụ_nữ hàn_quốc 63 tuổi gặp phải sự_cố ăn món bạch_tuộc sống bà cảm_thấy ngứa râm_ran miệng như con vật gì đang bò</t>
+  </si>
+  <si>
+    <t>vụ_việc rúng_động nhất bắc_ninh tối qua gái qua_đời ngay đêm còn bạn trai mới qua nguy_kịch theanh28 sáng 25 10 trao_đổi phóng_viên lãnh_đạo công_an tp bắc_ninh biết cơ_quan bàn_giao hồ_sơ ban_đầu pth 19 tuổi trú tp tuyên_quang tỉnh tuyên_quang phòng cảnh_sát hình_sự công_an tỉnh bắc_ninh làm rõ tội g iế t theo vị lãnh_đạo 2 nạn_nhân vụ án chị ntb 19 tuổi trú tp tuyên_quang qua_đời khoảng giờ ngày 25 10 còn d bạn trai chị b cầm m á u qua cơn nguy_kịch</t>
   </si>
   <si>
     <t>đoàn_thiên_ân_hát nhạc taylor_swift thi phỏng_vấn tân_cao đẹp đoàn_thiên_ân hát trích_đoạn safe and sound hit taylor_swift phần thi phỏng_vấn thuộc miss grand international 2022</t>
   </si>
   <si>
-    <t>chính_quyền nói lát đá vỉa_hè 70 hỏng mới sử_dụng vỡ nát hồng_hà ngày khó bắt_gặp cảnh từng tốp công_nhân đào_xới lát đá vỉa_hè trên tuyến đường nội_đô hà_nội cứ dịp cuối điệp_khúc đào_xới vỉa_hè thay đá lát hà_nội tiếp_tục diễn đáng chú_ý một_số đoạn vỉa_hè lát đá quảng_cáo độ bền 50 70 đang nát bươm thời_gian ngắn sử_dụng facebooker_thao le bình_luận lãnh_đạo hà_nội nói vỉa_hè 70 hỏng dân cứ ngỡ sẽ dùng dài lâu ai_ngờ 70 điều_kiện vô_trùng ai biết càng gần cuối thì áp_lực giải_ngân sếp càng lớn thôi_thì lật vỉa_hè lên thay lớp mới vừa giải_ngân số tiền lớn mà_lại tiếng làm_đẹp bộ_mặt thủ_đô chỉ mỗi dân khổ_sở bất_tiện thi_công kéo_dài gây bụi mù_mịt đường gây ảnh_hưởng tới giao_thông dân</t>
-  </si>
-  <si>
-    <t>hoa_khôi á khôi thi hoa_hậu 2022 tân_cao sinh_viên từng đoạt danh_hiệu hoa_khôi á khôi vượt qua vòng sơ_tuyển hoa_hậu 2022</t>
-  </si>
-  <si>
-    <t>hơn 100 công_nhân nợ lương hoàng_nam lao_động xã tân_ninh huyện tân_thạnh nợ lương kéo_dài một_số giăng mùng ngủ xưởng ngăn công_ty tẩu_tán tài_sản</t>
-  </si>
-  <si>
-    <t>cổ thiên_lạc đón tuổi 52 như_anh tài_tử hong_kong_cổ thiên_lạc đón tuổi 52 bên người_thân phủ_nhận sức_khỏe sa_sút</t>
-  </si>
-  <si>
-    <t>vi_khuẩn cổ_đại có_thể ngủ yên hàng triệu trên sao hỏa thanh hà vi_khuẩn cổ_đại có_thể ngủ yên dưới bề_mặt sao hỏa nơi chúng che_chắn khỏi bức_xạ không_gian khắc_nghiệt hàng triệu</t>
-  </si>
-  <si>
-    <t>rau vietgap phải bán giá_chợ  siêu_thị nay nông_dân trồng rau xã văn_đức huyện gia_lâm phải bỏ mác vietgap cạnh_tranh rau chợ</t>
-  </si>
-  <si>
-    <t>bộ y_tế lên_tiếng phản_ánh đại_biểu quốc_hội viết_tuân ngày đại_biểu nguyễn tri_thức giám_đốc bệnh_viện chợ_rẫy phản_ánh quốc_hội việc khó mua thiết_bị đại_diện bộ y_tế lên_tiếng phản_hồi</t>
-  </si>
-  <si>
-    <t>hóa vàng ô_tô đổi lấy 5 triệu theanh28 mới_đây phòng cảnh_sát hình_sự pc02 công_an tphcm biết đang tạm giữ n t đ n t l sn 2005 an_giang điều_tra hành_vi hủy_hoại tài_sản biết rạng sáng 5 10 2 cháu tới con hẻm đường vĩnh_lộc xã vĩnh_lộc a huyện bình_chánh hóa vàng chiếc ô_tô có_giá hơn tỷ đồng gia_đình chị a 2 đối_tượng còn dùng điện_thoại quay clip rồi nhanh_chóng phi xe_máy cao chạy xa bay lẩn_trốn ngày thì 2 cháu lực_lượng chức_năng bắt_giữ</t>
-  </si>
-  <si>
-    <t>dân mỹ khổ như báo_chí cách_mạng viết  ngày hôm_qua 26 tháng mười báo điện_tử cafe biz đưa tin dân mỹ dám mua kẹo mùa halloween vì lạm_phát rồi báo cafe biz đưa tin rằng bất_chấp lạm_phát dân mỹ vẫn vung 10 6 tỷ usd halloween thật_sự báo_chí cách mệnh bây_giờ nó lạ lắm cứ đá nhau chan_chát thế thì ai mà tin dân mỹ đọc xong chắc họ cười sặc cơm mất mở_miệng chê_bai mỹ dè bĩu mỹ nhưng thực_ra chửi mỹ công_việc định_cư mỹ ước_mơ</t>
-  </si>
-  <si>
-    <t>travis_scott phủ_nhận ngoại_tình phương_mai rapper travis scott nói người_mẫu rojean kar bịa chuyện ngoại_tình lưng bạn gái kylie_jenner</t>
-  </si>
-  <si>
-    <t>ăn buffet 3 nhưng đòi tính tiền 2 suất theanh28 chuyện chị gái quán buffet nướng dẫn theo 2 con nói chị ăn trước đó rồi nên mong_muốn quán chỉ tính 2 suất 2 cháu còn chị chỉ đưa ăn thôi nhưng 2 cháu ăn 15p thì quán tận_mắt thấy cả clip quay chị gái cầm đũa lên ăn_uống như bình_thường phải chỉ 2 miếng 2 lần nhân_viên quản_lý thanh_toán chị bảo ban_đầu thoả_thuận chỉ tính 2 chỉ tính 2 còn chị ăn bao_nhiêu việc chị lần cuối_cùng chủ quán đang nhặt tôm chợ long_biên phải cất_công chạy quán rồi 2 bên combat thế nhưng chị_gái kia vẫn nhất_quyết chỉ trả tiền 2 suất mà thôi</t>
-  </si>
-  <si>
-    <t>đảo phú_quý hết xăng tư_huynh tất_cả cửa_hàng xăng dầu trên huyện đảo phú_quý đều hết sạch xăng hai ngày qua dân đây không_thể mua nhiên_liệu thiết_yếu</t>
-  </si>
-  <si>
-    <t>đưa mo_cau thế_giới phạm_linh đam_mê làm_giàu phế_phẩm nông_nghiệp nguyễn_văn_tuyến 38 tuổi biến mo_cau thành chén đĩa xuất hàn_quốc canada mỹ</t>
-  </si>
-  <si>
-    <t>sở gd đt tp hcm quyết_định lùi giờ học tất_cả học_sinh cấp theanh28 ngày 27 10 hồ tấn_minh chánh văn_phòng sở gd đt tphcm biết ban giám_đốc sở quyết_định lùi giờ học đối_với học_sinh cấp mầm_non thpt theo đó học_sinh mầm_non tiểu_học sẽ bắt_đầu giờ học sớm nhất lúc 7h30 thcs sớm nhất lúc 7h15 thpt sớm nhất lúc 7h</t>
-  </si>
-  <si>
-    <t>đừng vì vài_ba cốc bia chén rượu mà làm khổ theanh28 đêm qua vụ tai_nạn thương_tâm xảy trên đường minh_khai hai bà trưng hà_nội nạn_nhân nam thanh_niên khoảng 30 tuổi uống quá_chén làm_chủ tốc_độ lao cột điện ven đường t ử v ong tại_chỗ</t>
-  </si>
-  <si>
-    <t>vụ_việc rúng_động nhất bắc_ninh tối qua gái qua_đời ngay đêm còn bạn trai mới qua nguy_kịch theanh28 sáng 25 10 trao_đổi phóng_viên lãnh_đạo công_an tp bắc_ninh biết cơ_quan bàn_giao hồ_sơ ban_đầu pth 19 tuổi trú tp tuyên_quang tỉnh tuyên_quang phòng cảnh_sát hình_sự công_an tỉnh bắc_ninh làm rõ tội g iế t theo vị lãnh_đạo 2 nạn_nhân vụ án chị ntb 19 tuổi trú tp tuyên_quang qua_đời khoảng giờ ngày 25 10 còn d bạn trai chị b cầm m á u qua cơn nguy_kịch</t>
-  </si>
-  <si>
-    <t>hàng nghìn nhà_trẻ hàn_quốc đóng_cửa vì dân chịu sinh con theanh28 ngày 26 10 cơ_quan thống_kê hàn_quốc kostat công_bố số_liệu thấy số trẻ sơ_sinh chào_đời nước tháng 8 vừa_qua mức thấp kỷ_lục trái_ngược số ca t ử v o ng mức cao chưa từng thấy bối_cảnh tốc_độ già_hóa dân_số nhanh đại_dịch c ov id 19</t>
-  </si>
-  <si>
-    <t>cảm_phục nam sinh nhóm máu hiếm vượt 30km cứu dù ngày_mai phải thi theanh28 thuộc nhóm m á u o_rh d âm nguyễn hồng_quân 21 tuổi sinh_viên trường đại_học công_nghiệp hà_nội ngại vượt 30km đường xa tối muộn hiến tiểu_cầu viện huyết_học truyền m á u trung_ương ca bệnh_nhi u ng th ư 18h ngày hôm đó trưởng nhóm câu_lạc_bộ nhóm m áu hiếm o_rh nhắn_tin nhóm chung rằng đang ca bệnh cần gấp đơn_vị tiểu_cầu nhưng bệnh_viện sẵn biết rằng chưa ai quân liền nhanh_chóng nhận nhiệm_vụ lên_đường cùng bạn mình dù ngày hôm cậu môn thi trường</t>
-  </si>
-  <si>
-    <t>hlv park_hang_seo chính_thức chia_tay đt 5 dẫn_dắt theanh28 liên_đoàn bóng_đá lđbđvn hlv trưởng đtqg park_hang_seo thống_nhất việc chấm_dứt hợp_đồng giữa hai bên ngày 31 01 2023 hơn 5 dẫn_dắt đt quyết_định trên đồng_nghĩa việc giải_đấu cuối_cùng hlv park_hang_seo cương_vị hlv trưởng đtqg sẽ giải_đấu aff cup 2022 tháng 12 tới</t>
-  </si>
-  <si>
-    <t>tp hcm sẽ biến mất 2030 việt_tân tp hcm sẽ biến mất 2030 hy_vọng tên sài_gòn sẽ trở_lại như xưa</t>
-  </si>
-  <si>
-    <t>tuấn_hưng vợ kiếm tiền hơn tôi hà_thu ca_sĩ tuấn_hưng nói bận_tâm chuyện mỉa_mai thua_kém kiếm ít tiền hơn vợ sẵn_sàng nhà_tắm_giặt chăm con</t>
-  </si>
-  <si>
-    <t>công_dân việt nam thiệt_mạng thảm_kịch halloween hàn_quốc theanh28 theo phóng_viên ttxvn seoul đại_sứ_quán hàn_quốc xác_nhận công_dân thiệt_mạng thảm_họa giẫm_đạp itaewon seoul</t>
-  </si>
-  <si>
-    <t>minh_tinh gốc á đầu_tiên xuất_hiện trên tiền mỹ phương_mai anna may_wong diễn_viên mang hai dòng máu mỹ trung_quốc sẽ trở_thành phụ_nữ gốc á đầu_tiên có_mặt trên tiền mỹ</t>
-  </si>
-  <si>
-    <t>sơn_tùng m tp thăm trường cũ mai_nhật ca_sĩ sơn_tùng m tp hàng trăm học_sinh vây quanh thăm trường phổ_thông từng học quê</t>
-  </si>
-  <si>
-    <t>vì_sao đà_lạt ngập sâu mưa phước_tuấn phát_triển ồ_ạt nhà_kính làm nông_nghiệp bêtông_hóa quá nhanh chiếm hết không_gian xanh khiến thành_phố du_lịch thường ngập_úng mưa lớn theo chuyên_gia</t>
-  </si>
-  <si>
-    <t>danh_ca mù andrea_bocelli gây xúc_động lễ quả bóng_vàng tân_cao danh_ca mù italy andrea bocelli hát khúc aria nổi_tiếng nessun dorma gala quả bóng vàng 2022</t>
-  </si>
-  <si>
-    <t>đại_biểu vũ_thị_lưu_mai tư_duy nhiệm_kỳ gây lãng_phí đất_đai viết_tuân tư_duy nhiệm_kỳ nguyên_nhân gây lãng_phí đất_đai lớn nơi mỗi nhiệm_kỳ số dự_án_treo tăng thêm theo đại_biểu vũ_thị_lưu_mai</t>
-  </si>
-  <si>
-    <t>tái_thất_nghiệp xuất_khẩu lao_động đức_hùng 7 làm_việc nhà_máy dệt hàn_quốc trần_đạt trở quê hà_tĩnh vạch xuất_phát hiện mưu_sinh bằng nghề phụ hồ bốc_vác</t>
-  </si>
-  <si>
-    <t>khó vậy mà nghĩ nữa theanh28 mới_đây hơn 3 tấn chân gà rõ nguồn_gốc xuất_xứ vừa lực_lượng chức_năng phát_hiện_tại huyện đan_phượng hà_nội hầu_hết số chân gà dấu_hiệu hư_hỏng bốc mùi hôi nhưng vẫn chủ cơ_sở thu_gom cung_cấp cơ_sở chế_biến chân gà rút xương chuẩn_bị giao khắp cá địa_bàn trên thành_phố hà_nội khai_báo lực_lượng chức_năng chủ cơ_sở vẫn rất bình_tĩnh khẳng_định chắc do vận_chuyển bảo_quản nó hư_hỏng thôi chứ nguồn_gốc nó vẫn chân con gà mà mà bản_chất nó vẫn con gà mà</t>
-  </si>
-  <si>
-    <t>chưa xem_xét giảm thêm thuế xăng_dầu anh_minh uỷ_ban tài_chính ngân_sách quốc_hội rằng nếu cần_thiết có_thể giảm tiếp thuế bảo_vệ môi_trường trước tính tới giảm thuế tiêu_thụ đặc_biệt vat</t>
-  </si>
-  <si>
-    <t>lâm_khánh_chi phẫu_thuật dây thanh_quản tân_cao ca_sĩ lâm_khánh_chi phẫu_thuật dây thanh_quản giọng nói nữ_tính hoàn_thiện bản_thân chuyển giới</t>
-  </si>
-  <si>
-    <t>chồng đỗ_mỹ_linh em định_mệnh đời tân_cao doanh_nhân đỗ vinh_quang gọi hoa_hậu đỗ_mỹ_linh định_mệnh hứa mang hạnh_phúc tiệc cưới tối 23 10</t>
-  </si>
-  <si>
-    <t>lý á bằng tôi thích đóng phim như_anh tài_tử trung_quốc lý á bằng nói ngừng đóng phim vì công_việc mang niềm vui dù tung_hô</t>
-  </si>
-  <si>
-    <t>đoàn_thiên_ân gặp sự_cố diễn trang_phục 10 kg tân_cao thiên_ân_trình_diễn thiết_kế trúc chỉ nặng 10 kg miss grand international 2022 phần khung xoay do motor gặp sự_cố</t>
-  </si>
-  <si>
-    <t>hoa_hậu hương_giang lăng_xê trang_sức đá_quý jessica vạn_phát hoa_hậu hương_giang chọn trang_sức_gắn đá_quý kim_cương hãng jessica dự sự_kiện chopard loves_cinema singapore hồi tuần trước</t>
-  </si>
-  <si>
-    <t>sao the_flash đối_mặt án tù 26 phương_mai tài_tử ezra_miller từ_chối thỏa_thuận đầu_thú tòa_án đối_mặt án tù lên 26 nếu kết_tội đột_nhập ăn_trộm</t>
-  </si>
-  <si>
-    <t>gạo nhựa đốt cháy khét_lẹt xôn_xao lan_truyền nỗi sợ hạnh_nguyên vietnamnet gần đây thông_tin hình_ảnh lan_truyền trên mạng xã_hội gạo giả gạo cao_su khiến tiêu_dùng hoang_mang song thực_tế đúng như_vậy hay</t>
+    <t>khai_quật chiếc quan_tài màu đỏ như máu chuyên_gia vừa mở liền hét lớn chạy nǥay th 2003 công_nhân khai_thác đá núi thổ_nhĩ_cơ khu tự_trị nội mông_cổ trung_quốc vô_tình đào ngôi mộ cổ nǥay đó công_nhân báo_cáo chính_quyền địa_phương cɑ ́ c chuyên_gia khảo_cổ_học gọi khai_quật nghiên_cứu ngôi mộ cổ chẳng ai có_thể ngờ ngội mộ ẩn_chứa thứ khả_năng hại chết</t>
   </si>
   <si>
     <t>Đúng</t>
@@ -698,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
@@ -737,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -807,10 +807,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>93</v>
@@ -821,10 +821,10 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>93</v>
@@ -835,10 +835,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>93</v>
@@ -905,10 +905,10 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>93</v>
@@ -933,13 +933,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -961,10 +961,10 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>93</v>
@@ -975,10 +975,10 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>93</v>
@@ -1003,13 +1003,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1059,10 +1059,10 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>93</v>
@@ -1115,10 +1115,10 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>93</v>
@@ -1129,10 +1129,10 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>93</v>
@@ -1143,13 +1143,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1199,10 +1199,10 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>93</v>
@@ -1213,10 +1213,10 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>93</v>
@@ -1241,10 +1241,10 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>93</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1325,10 +1325,10 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
         <v>93</v>
@@ -1339,10 +1339,10 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>93</v>
@@ -1384,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1409,13 +1409,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1454,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1465,10 +1465,10 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
         <v>93</v>
@@ -1479,13 +1479,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1521,10 +1521,10 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
         <v>93</v>
@@ -1591,10 +1591,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="s">
         <v>93</v>
@@ -1647,13 +1647,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1675,10 +1675,10 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
         <v>93</v>
@@ -1720,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1787,13 +1787,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1815,10 +1815,10 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
         <v>94</v>
@@ -1857,10 +1857,10 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="s">
         <v>93</v>
@@ -1871,13 +1871,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1916,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
